--- a/data/trans_bre/IP42B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP42B-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 31,99</t>
+          <t>-11,65; 32,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 37,3</t>
+          <t>-3,29; 37,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 14,66</t>
+          <t>-12,46; 13,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-42,49; 304,87</t>
+          <t>-38,38; 340,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 234,18</t>
+          <t>-10,58; 228,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-82,73; 380,08</t>
+          <t>-74,89; 277,52</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 2,87</t>
+          <t>-6,57; 2,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 4,85</t>
+          <t>-8,4; 5,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 5,87</t>
+          <t>-3,59; 6,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-84,45; 131,2</t>
+          <t>-83,34; 91,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,86; 52,13</t>
+          <t>-49,44; 57,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,89; 126,83</t>
+          <t>-43,79; 139,1</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 23,47</t>
+          <t>-5,33; 23,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 17,86</t>
+          <t>-7,29; 17,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 12,17</t>
+          <t>-9,29; 11,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,37; 548,59</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 7,82</t>
+          <t>-3,07; 6,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 7,97</t>
+          <t>-4,12; 8,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 5,54</t>
+          <t>-3,38; 4,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,37; 165,22</t>
+          <t>-34,47; 136,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,0; 75,05</t>
+          <t>-26,22; 78,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,41; 92,01</t>
+          <t>-34,48; 79,35</t>
         </is>
       </c>
     </row>
